--- a/bin-data.xlsx
+++ b/bin-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/hfnpsrma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A267D408-BD80-4690-BD9C-795F511CAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0B14C2-B4E4-4F60-940D-EE4179BC62DF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A267D408-BD80-4690-BD9C-795F511CAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F9F10A-7A80-4B66-9284-0AF9F7197B02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13500" xr2:uid="{7FB35474-37F3-4D4D-9D1A-79E0ED9D1E3B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21510" windowHeight="9630" xr2:uid="{7FB35474-37F3-4D4D-9D1A-79E0ED9D1E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>n.c1</t>
   </si>
   <si>
-    <t>n.c1.outcome.event</t>
-  </si>
-  <si>
     <t>n.e</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>pneumonia</t>
+  </si>
+  <si>
+    <t>n.c1.outcome</t>
   </si>
 </sst>
 </file>
@@ -277,10 +277,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5979B-1335-4720-961B-1C72A9CB41D5}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15.75"/>
@@ -629,19 +625,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -655,19 +651,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>2013</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>171</v>
@@ -684,19 +680,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>2015</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="4">
         <v>416</v>
@@ -713,19 +709,19 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>2015</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="4">
         <v>74</v>
@@ -742,19 +738,19 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>2016</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>112</v>
@@ -771,19 +767,19 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>2017</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>54</v>
@@ -800,19 +796,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>2018</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F8" s="4">
         <v>50</v>
@@ -829,19 +825,19 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>2019</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>48</v>
@@ -858,19 +854,19 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>2019</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>32</v>
@@ -887,19 +883,19 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -916,19 +912,19 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>30</v>
@@ -945,19 +941,19 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>2021</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F13" s="1">
         <v>33</v>
@@ -974,19 +970,19 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>2022</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="4">
         <v>40</v>
@@ -1003,19 +999,19 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F15" s="1">
         <v>90</v>
@@ -1035,19 +1031,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>2015</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1">
         <v>416</v>
@@ -1064,19 +1060,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>2016</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
         <v>112</v>
@@ -1094,19 +1090,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9">
         <v>2017</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
         <v>54</v>
@@ -1123,19 +1119,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>2018</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
@@ -1152,19 +1148,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>2022</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>40</v>
@@ -1181,19 +1177,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>2023</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>90</v>
@@ -1210,19 +1206,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>2024</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="9">
         <v>39</v>
@@ -1239,19 +1235,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>2024</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1">
         <v>30</v>
@@ -1271,19 +1267,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
         <v>2017</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9">
         <v>54</v>
@@ -1300,19 +1296,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>2019</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
         <v>32</v>
@@ -1329,19 +1325,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>2022</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1">
         <v>40</v>
@@ -1358,19 +1354,19 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>2023</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1">
         <v>90</v>
@@ -1387,19 +1383,19 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>2024</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1">
         <v>39</v>
@@ -1416,19 +1412,19 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>2025</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1">
         <v>58</v>
@@ -1448,19 +1444,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="4">
         <v>2016</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="4">
         <v>112</v>
@@ -1477,19 +1473,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4">
         <v>2017</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="4">
         <v>54</v>
@@ -1506,19 +1502,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4">
         <v>2019</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="4">
         <v>48</v>
@@ -1535,19 +1531,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4">
         <v>2019</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4">
         <v>32</v>
@@ -1564,19 +1560,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="4">
         <v>2021</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="4">
         <v>33</v>
@@ -1593,19 +1589,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4">
         <v>2022</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="4">
         <v>10</v>
@@ -1622,19 +1618,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4">
         <v>2022</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="4">
         <v>15</v>
@@ -1651,19 +1647,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4">
         <v>2023</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="4">
         <v>41</v>
@@ -1680,19 +1676,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="4">
         <v>2023</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" s="4">
         <v>90</v>
@@ -1709,19 +1705,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="4">
         <v>2024</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" s="4">
         <v>39</v>
@@ -1738,19 +1734,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="4">
         <v>2025</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" s="4">
         <v>58</v>
@@ -1767,19 +1763,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4">
         <v>2025</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="4">
         <v>99</v>
@@ -1799,19 +1795,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="4">
         <v>2013</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="4">
         <v>171</v>
@@ -1828,19 +1824,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="4">
         <v>2016</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="4">
         <v>112</v>
@@ -1857,19 +1853,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="4">
         <v>2018</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" s="4">
         <v>45</v>
@@ -1886,19 +1882,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4">
         <v>2018</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="4">
         <v>50</v>
@@ -1915,19 +1911,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4">
         <v>2019</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="4">
         <v>48</v>
@@ -1944,19 +1940,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="4">
         <v>2021</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" s="4">
         <v>30</v>
@@ -1973,19 +1969,19 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="4">
         <v>2023</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="4">
         <v>41</v>
@@ -2002,19 +1998,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="4">
         <v>2023</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="4">
         <v>90</v>
@@ -2034,19 +2030,19 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="4">
         <v>2013</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" s="4">
         <v>171</v>
@@ -2063,19 +2059,19 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" s="4">
         <v>2015</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="4">
         <v>74</v>
@@ -2092,19 +2088,19 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" s="4">
         <v>2016</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="4">
         <v>112</v>
@@ -2121,19 +2117,19 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="4">
         <v>2017</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="4">
         <v>54</v>
@@ -2150,19 +2146,19 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4">
         <v>2018</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="4">
         <v>50</v>
@@ -2179,19 +2175,19 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="4">
         <v>2019</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="4">
         <v>48</v>
@@ -2208,19 +2204,19 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="4">
         <v>2020</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="4">
         <v>43</v>
@@ -2237,19 +2233,19 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="4">
         <v>2022</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="4">
         <v>40</v>
@@ -2269,19 +2265,19 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="4">
         <v>2016</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" s="4">
         <v>112</v>
@@ -2298,19 +2294,19 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="4">
         <v>2017</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" s="4">
         <v>26</v>
@@ -2327,19 +2323,19 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="4">
         <v>2019</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" s="4">
         <v>48</v>
@@ -2356,19 +2352,19 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="4">
         <v>2022</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" s="4">
         <v>40</v>
@@ -2385,19 +2381,19 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4">
         <v>2023</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" s="4">
         <v>41</v>
@@ -2414,19 +2410,19 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="4">
         <v>2025</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69" s="4">
         <v>58</v>

--- a/bin-data.xlsx
+++ b/bin-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/hfnpsrma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A267D408-BD80-4690-BD9C-795F511CAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F9F10A-7A80-4B66-9284-0AF9F7197B02}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{A267D408-BD80-4690-BD9C-795F511CAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90C9F88-27DD-4475-A19F-A1AA16C5687A}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21510" windowHeight="9630" xr2:uid="{7FB35474-37F3-4D4D-9D1A-79E0ED9D1E3B}"/>
+    <workbookView xWindow="4860" yWindow="5484" windowWidth="22440" windowHeight="12504" xr2:uid="{7FB35474-37F3-4D4D-9D1A-79E0ED9D1E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="42">
   <si>
     <t>author</t>
   </si>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,21 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -262,6 +277,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,16 +621,16 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" style="4"/>
-    <col min="3" max="3" width="12.28515625" style="6"/>
-    <col min="4" max="4" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="7"/>
-    <col min="6" max="16384" width="12.28515625" style="4"/>
+    <col min="1" max="2" width="12.33203125" style="4"/>
+    <col min="3" max="3" width="12.33203125" style="6"/>
+    <col min="4" max="4" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="7"/>
+    <col min="6" max="16384" width="12.33203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1027,7 +1049,33 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="5"/>
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
